--- a/dist/document/dest/2020/10/doctors/3.xlsx
+++ b/dist/document/dest/2020/10/doctors/3.xlsx
@@ -404,9 +404,6 @@
       <c r="B2" s="1">
         <v>20</v>
       </c>
-      <c r="C2" s="1">
-        <v>25600</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -415,9 +412,6 @@
       <c r="B3" s="1">
         <v>45</v>
       </c>
-      <c r="C3" s="1">
-        <v>58950</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -426,9 +420,6 @@
       <c r="B4" s="1">
         <v>68</v>
       </c>
-      <c r="C4" s="1">
-        <v>169320</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -437,9 +428,6 @@
       <c r="B5" s="1">
         <v>90</v>
       </c>
-      <c r="C5" s="1">
-        <v>284400</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -448,9 +436,6 @@
       <c r="B6" s="1">
         <v>42</v>
       </c>
-      <c r="C6" s="1">
-        <v>113820</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -459,9 +444,6 @@
       <c r="B7" s="1">
         <v>42</v>
       </c>
-      <c r="C7" s="1">
-        <v>48300</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -470,9 +452,6 @@
       <c r="B8" s="1">
         <v>44</v>
       </c>
-      <c r="C8" s="1">
-        <v>711480</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -481,9 +460,6 @@
       <c r="B9" s="1">
         <v>14</v>
       </c>
-      <c r="C9" s="1">
-        <v>31220</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -492,9 +468,6 @@
       <c r="B10" s="1">
         <v>45</v>
       </c>
-      <c r="C10" s="1">
-        <v>990000</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
@@ -503,9 +476,6 @@
       <c r="B11" s="1">
         <v>20</v>
       </c>
-      <c r="C11" s="1">
-        <v>9100</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
@@ -515,7 +485,7 @@
         <v>430</v>
       </c>
       <c r="C12" s="1">
-        <v>2442190</v>
+        <v>NaN</v>
       </c>
     </row>
   </sheetData>

--- a/dist/document/dest/2020/10/doctors/3.xlsx
+++ b/dist/document/dest/2020/10/doctors/3.xlsx
@@ -376,7 +376,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -402,15 +402,21 @@
         <v>Alaxan (Paracetamol, ibuprofen)</v>
       </c>
       <c r="B2" s="1">
-        <v>20</v>
+        <v>24</v>
+      </c>
+      <c r="C2" s="1">
+        <v>31440</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Alaxan (Paracetamol, ibuprofen)</v>
+        <v>Alpha Choay (VN)</v>
       </c>
       <c r="B3" s="1">
-        <v>45</v>
+        <v>40</v>
+      </c>
+      <c r="C3" s="1">
+        <v>99600</v>
       </c>
     </row>
     <row r="4">
@@ -418,79 +424,81 @@
         <v>Alpha Choay (VN)</v>
       </c>
       <c r="B4" s="1">
-        <v>68</v>
+        <v>28</v>
+      </c>
+      <c r="C4" s="1">
+        <v>69720</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Cigenol</v>
+        <v>Lucass 200 (Cefpodoxime)</v>
       </c>
       <c r="B5" s="1">
-        <v>90</v>
+        <v>10</v>
+      </c>
+      <c r="C5" s="1">
+        <v>161700</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v xml:space="preserve">Enervon C </v>
+        <v>Lucass 200 (Cefpodoxime)</v>
       </c>
       <c r="B6" s="1">
-        <v>42</v>
+        <v>14</v>
+      </c>
+      <c r="C6" s="1">
+        <v>226380</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Flagyl (Metronidazole) 250mg</v>
+        <v>Lucass 200 (Cefpodoxime)</v>
       </c>
       <c r="B7" s="1">
-        <v>42</v>
+        <v>44</v>
+      </c>
+      <c r="C7" s="1">
+        <v>711480</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Lucass 200 (Cefpodoxime)</v>
+        <v>Panadol (Paracetamol)</v>
       </c>
       <c r="B8" s="1">
-        <v>44</v>
+        <v>15</v>
+      </c>
+      <c r="C8" s="1">
+        <v>15000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Neurobion (B1 100mg,B6 200mg,B12 200mcg)</v>
+        <v xml:space="preserve">Prednisone </v>
       </c>
       <c r="B9" s="1">
-        <v>14</v>
+        <v>20</v>
+      </c>
+      <c r="C9" s="1">
+        <v>9100</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Pharcavir (Tenofovir alafenamide 25mg)</v>
+        <v>Tổng cộng</v>
       </c>
       <c r="B10" s="1">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v xml:space="preserve">Prednisone </v>
-      </c>
-      <c r="B11" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="str">
-        <v>Tổng cộng</v>
-      </c>
-      <c r="B12" s="1">
-        <v>430</v>
-      </c>
-      <c r="C12" s="1">
-        <v>NaN</v>
+        <v>195</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1324420</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C12"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C10"/>
   </ignoredErrors>
 </worksheet>
 </file>